--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem1/17/incorrect_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem1/17/incorrect_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1837,26 +1837,26 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>The target area is in an Altitude Zone Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>3-15</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1871,12 +1871,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>6-13</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1896,17 +1896,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn,</t>
+          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>6-13</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -1921,12 +1921,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance is not available</t>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn,</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1937,26 +1937,26 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning</t>
+          <t>Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1971,12 +1971,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Forward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -1996,42 +1996,42 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning</t>
+          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2046,12 +2046,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2071,15 +2071,40 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>Ambient Light is too weak</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>6-10</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>22</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>0-10</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>False</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem1/17/incorrect_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem1/17/incorrect_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1837,26 +1837,26 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>The target area is in an Altitude Zone Flight altitude restricted to nnn</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>3-15</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -1871,12 +1871,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-13</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1896,17 +1896,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn,</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>6-13</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1921,12 +1921,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn,</t>
+          <t>Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1937,26 +1937,26 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance is not available</t>
+          <t>Forward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -1971,12 +1971,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -1996,42 +1996,42 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak</t>
+          <t>Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -2046,12 +2046,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2071,40 +2071,15 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>22</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
         <is>
           <t>False</t>
         </is>
